--- a/Results/seq2seq_results.xlsx
+++ b/Results/seq2seq_results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/Documents/GitHub/sockeye-recipes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{870D64CE-A399-994D-9916-D030C9E16D25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E65D3B-9802-2F48-8828-FC2C0E4D5C01}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{63800894-6832-2440-9083-EFA27E428687}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -58,13 +58,28 @@
   </si>
   <si>
     <t>Beam Size</t>
+  </si>
+  <si>
+    <t>Original Newsela</t>
+  </si>
+  <si>
+    <t>Newela Version 2</t>
+  </si>
+  <si>
+    <t>Newsela Version 3</t>
+  </si>
+  <si>
+    <t>*Note that we changed our entity recognition to SpaCy's more fine-grained approach for v2 and v3</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,14 +96,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -233,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -245,16 +252,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -266,70 +303,124 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,204 +737,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3362A2F3-D871-0C4B-B155-B5D900831316}">
-  <dimension ref="B2:J9"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:13">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" ht="34">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14" t="s">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="34">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="5" t="s">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="22">
+      <c r="F4" s="16">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
-      <c r="F4" s="29">
+      <c r="G4" s="13">
         <f>100*0.589214253759426</f>
         <v>58.921425375942604</v>
       </c>
-      <c r="G4" s="30">
+      <c r="H4" s="14">
         <f>100*0.408176081534362</f>
         <v>40.817608153436204</v>
       </c>
-      <c r="H4" s="33">
+      <c r="I4" s="38">
         <f>100*0.268391861919164</f>
         <v>26.839186191916397</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="3">
+    <row r="5" spans="2:13">
+      <c r="B5" s="28"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="16">
+      <c r="F5" s="17"/>
+      <c r="G5" s="7">
         <f>0.658387204449097*100</f>
         <v>65.838720444909711</v>
       </c>
-      <c r="G5" s="17">
+      <c r="H5" s="8">
         <f>0.424172286670437*100</f>
         <v>42.417228667043702</v>
       </c>
-      <c r="H5" s="17">
+      <c r="I5" s="8">
         <f>100*0.250024756307062</f>
         <v>25.002475630706201</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="25"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4">
+    <row r="6" spans="2:13">
+      <c r="B6" s="28"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="27">
+      <c r="F6" s="18"/>
+      <c r="G6" s="9">
         <f>100*0.67706023296069</f>
         <v>67.706023296068992</v>
       </c>
-      <c r="G6" s="20">
+      <c r="H6" s="10">
         <f>100*0.426754534906805</f>
         <v>42.675453490680496</v>
       </c>
-      <c r="H6" s="19">
+      <c r="I6" s="10">
         <f>100*0.250360265440938</f>
         <v>25.036026544093797</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
+    <row r="7" spans="2:13">
+      <c r="B7" s="28"/>
+      <c r="C7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="21">
+      <c r="F7" s="17">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
-      <c r="F7" s="16">
+      <c r="G7" s="7">
         <f>100*0.591013402538371</f>
         <v>59.101340253837101</v>
       </c>
-      <c r="G7" s="17">
+      <c r="H7" s="8">
         <f>100*0.416572169336208</f>
         <v>41.657216933620802</v>
       </c>
-      <c r="H7" s="17">
+      <c r="I7" s="8">
         <f>100*0.265527587955381</f>
         <v>26.5527587955381</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="3">
+    <row r="8" spans="2:13">
+      <c r="B8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="16">
+      <c r="F8" s="17"/>
+      <c r="G8" s="7">
         <f>0.650766445514131*100</f>
         <v>65.076644551413096</v>
       </c>
-      <c r="G8" s="17">
+      <c r="H8" s="8">
         <f>0.424464303805217*100</f>
         <v>42.446430380521697</v>
       </c>
-      <c r="H8" s="32">
+      <c r="I8" s="15">
         <f>100*0.255230727840708</f>
         <v>25.523072784070798</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4">
+    <row r="9" spans="2:13" ht="15" customHeight="1">
+      <c r="B9" s="28"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="18">
+      <c r="F9" s="17"/>
+      <c r="G9" s="7">
         <f>100*0.660247281857768</f>
         <v>66.024728185776809</v>
       </c>
-      <c r="G9" s="19">
+      <c r="H9" s="8">
         <f>100*0.425275529746539</f>
         <v>42.527552974653901</v>
       </c>
-      <c r="H9" s="31">
+      <c r="I9" s="41">
         <f>100*0.25472845577345</f>
         <v>25.472845577344998</v>
       </c>
     </row>
+    <row r="10" spans="2:13" ht="16" customHeight="1">
+      <c r="B10" s="28"/>
+      <c r="C10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="50">
+        <v>1</v>
+      </c>
+      <c r="F10" s="54">
+        <f>100*0.358462182012152</f>
+        <v>35.846218201215201</v>
+      </c>
+      <c r="G10" s="47">
+        <f>100*0.633378912436381</f>
+        <v>63.337891243638097</v>
+      </c>
+      <c r="H10" s="52">
+        <f>100*0.411765673934286</f>
+        <v>41.176567393428599</v>
+      </c>
+      <c r="I10" s="48">
+        <f>100*0.340449469392756</f>
+        <v>34.044946939275597</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="60"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="51">
+        <v>5</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="61">
+        <f>100*0.695336409341215</f>
+        <v>69.533640934121493</v>
+      </c>
+      <c r="H11" s="49">
+        <f>100*0.431267677077956</f>
+        <v>43.126767707795601</v>
+      </c>
+      <c r="I11" s="49">
+        <f>100*0.340496168006096</f>
+        <v>34.049616800609598</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="60"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="28"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="51">
+        <v>10</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="46">
+        <f>100*0.709714023667025</f>
+        <v>70.971402366702492</v>
+      </c>
+      <c r="H12" s="53">
+        <f>100*0.430079493471261</f>
+        <v>43.0079493471261</v>
+      </c>
+      <c r="I12" s="49">
+        <f>100*0.340528178057137</f>
+        <v>34.052817805713701</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="60"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="28"/>
+      <c r="C13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="50">
+        <v>1</v>
+      </c>
+      <c r="F13" s="54">
+        <f>100*0.358462182012152</f>
+        <v>35.846218201215201</v>
+      </c>
+      <c r="G13" s="47">
+        <f>100*0.604455940134864</f>
+        <v>60.445594013486406</v>
+      </c>
+      <c r="H13" s="52">
+        <f>100*0.407138925307856</f>
+        <v>40.7138925307856</v>
+      </c>
+      <c r="I13" s="57">
+        <f>100*0.340219418014607</f>
+        <v>34.021941801460699</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="60"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="28"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="51">
+        <v>5</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="45">
+        <f>100*0.671369116857777</f>
+        <v>67.136911685777704</v>
+      </c>
+      <c r="H14" s="53">
+        <f>100*0.422081610789433</f>
+        <v>42.208161078943299</v>
+      </c>
+      <c r="I14" s="58">
+        <f>100*0.340232752621877</f>
+        <v>34.023275262187703</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="60"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="29"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="42">
+        <v>10</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="43">
+        <f>100*0.688346930256841</f>
+        <v>68.834693025684103</v>
+      </c>
+      <c r="H15" s="44">
+        <f>100*0.421737032666688</f>
+        <v>42.173703266668802</v>
+      </c>
+      <c r="I15" s="59">
+        <f>100*0.340147808687311</f>
+        <v>34.014780868731101</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="60"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="32"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E2:G2"/>
+  <mergeCells count="20">
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="K10:L15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B4:B15"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results/seq2seq_results.xlsx
+++ b/Results/seq2seq_results.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/Documents/GitHub/sockeye-recipes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E65D3B-9802-2F48-8828-FC2C0E4D5C01}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727A7530-72B2-8D48-8AB5-9FEE33B2083E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{63800894-6832-2440-9083-EFA27E428687}"/>
+    <workbookView xWindow="1700" yWindow="460" windowWidth="23800" windowHeight="16540" xr2:uid="{63800894-6832-2440-9083-EFA27E428687}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>Model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Input_Format</t>
   </si>
@@ -48,9 +47,6 @@
     <t>Complex vs. Simple</t>
   </si>
   <si>
-    <t>Seq2Seq</t>
-  </si>
-  <si>
     <t>Complex vs. Reference Simple</t>
   </si>
   <si>
@@ -73,13 +69,106 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Loss Function</t>
+  </si>
+  <si>
+    <t>Cross Entropy</t>
+  </si>
+  <si>
+    <t>Simple Cross Entropy</t>
+  </si>
+  <si>
+    <t>Simple Cross Entropy (1.0)</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with perplexity</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with perplexity, fluency, simplicity evenly</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with fluency</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with simplicity</t>
+  </si>
+  <si>
+    <t>Beam Size 400, clustering/reranking with perplexity</t>
+  </si>
+  <si>
+    <t>Beam Size 400, clustering/reranking with fluency</t>
+  </si>
+  <si>
+    <t>Beam Size 400, clustering/reranking with simplicity</t>
+  </si>
+  <si>
+    <t>Beam Size 400, clustering/reranking with perplexity, fluency, simplicity evenly</t>
+  </si>
+  <si>
+    <t>Beam Size 100, simplified loss, clustering/reranking with perplexity</t>
+  </si>
+  <si>
+    <t>Beam Size 100, simplified loss, clustering/reranking with fluency</t>
+  </si>
+  <si>
+    <t>Beam Size 100, simplified loss, clustering/reranking with simplicity</t>
+  </si>
+  <si>
+    <t>Beam Size 100, simplified loss, clustering/reranking with perplexity, fluency, simplicity evenly</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with perplexity, diverse beam</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with fluency, diverse beam</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with simplicity, diverse beam</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with perplexity, fluency, simplicity evenly, diverse beam</t>
+  </si>
+  <si>
+    <t>Beam Size 100</t>
+  </si>
+  <si>
+    <t>Beam Size 100, simplified loss</t>
+  </si>
+  <si>
+    <t>Beam Size 100, diverse beam</t>
+  </si>
+  <si>
+    <t>Beam Size 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Beam Size 100, diverse beam, simplified loss</t>
+  </si>
+  <si>
+    <t>Beam Size 100, diverse beam, simplified loss, clustering/reranking with perplexity</t>
+  </si>
+  <si>
+    <t>Beam Size 100, diverse beam, simplified loss, clustering/reranking with fluency</t>
+  </si>
+  <si>
+    <t>Beam Size 100, diverse beam, simplified loss, clustering/reranking with simplicity</t>
+  </si>
+  <si>
+    <t>Beam Size 100, diverse beam, simplified loss, clustering/reranking with perplexity, fluency, simplicity evenly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +190,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -285,6 +388,152 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,77 +558,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,41 +582,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,78 +899,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3362A2F3-D871-0C4B-B155-B5D900831316}">
-  <dimension ref="B2:M17"/>
+  <dimension ref="C2:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:14">
+      <c r="C2" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="3:14" ht="34">
+      <c r="C3" s="65"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="81"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="3:14">
+      <c r="C4" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="66">
+        <f>0.36379314092195*100</f>
+        <v>36.379314092194996</v>
+      </c>
+      <c r="H4" s="33">
+        <f>100*0.591013402538371</f>
+        <v>59.101340253837101</v>
+      </c>
+      <c r="I4" s="34">
+        <f>100*0.416572169336208</f>
+        <v>41.657216933620802</v>
+      </c>
+      <c r="J4" s="34">
+        <f>100*0.265527587955381</f>
+        <v>26.5527587955381</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="53"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="7">
+        <f>0.650766445514131*100</f>
+        <v>65.076644551413096</v>
+      </c>
+      <c r="I5" s="8">
+        <f>0.424464303805217*100</f>
+        <v>42.446430380521697</v>
+      </c>
+      <c r="J5" s="15">
+        <f>100*0.255230727840708</f>
+        <v>25.523072784070798</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="15" customHeight="1">
+      <c r="C6" s="54"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="9">
+        <f>100*0.660247281857768</f>
+        <v>66.024728185776809</v>
+      </c>
+      <c r="I6" s="10">
+        <f>100*0.425275529746539</f>
+        <v>42.527552974653901</v>
+      </c>
+      <c r="J6" s="76">
+        <f>100*0.25472845577345</f>
+        <v>25.472845577344998</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" ht="15" customHeight="1">
+      <c r="C7" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="66">
+        <f>0.36379314092195*100</f>
+        <v>36.379314092194996</v>
+      </c>
+      <c r="H7" s="33">
+        <f>100*0.606352450822071</f>
+        <v>60.635245082207099</v>
+      </c>
+      <c r="I7" s="34">
+        <f>100*0.41243622650745</f>
+        <v>41.243622650744996</v>
+      </c>
+      <c r="J7" s="44">
+        <f>100*0.266153698285725</f>
+        <v>26.615369828572501</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="15" customHeight="1">
+      <c r="C8" s="53"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="7">
+        <f>100*0.6667034520998</f>
+        <v>66.670345209979999</v>
+      </c>
+      <c r="I8" s="8">
+        <f>100*0.429609365221545</f>
+        <v>42.960936522154505</v>
+      </c>
+      <c r="J8" s="77">
+        <f>100*0.248726504023165</f>
+        <v>24.872650402316502</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" ht="15" customHeight="1">
+      <c r="C9" s="54"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="68"/>
+      <c r="H9" s="46">
+        <f>100*0.682087556614694</f>
+        <v>68.208755661469397</v>
+      </c>
+      <c r="I9" s="47">
+        <f>100*0.430232488119187</f>
+        <v>43.023248811918705</v>
+      </c>
+      <c r="J9" s="78">
+        <f>100*0.248088436467656</f>
+        <v>24.808843646765599</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" ht="16" customHeight="1">
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49">
+        <v>2</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48">
+        <f>100*0.604133167539677</f>
+        <v>60.413316753967706</v>
+      </c>
+      <c r="I10" s="48">
+        <f>100*0.414290738977201</f>
+        <v>41.429073897720095</v>
+      </c>
+      <c r="J10" s="79">
+        <f>100*0.269782958179585</f>
+        <v>26.978295817958497</v>
+      </c>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="79">
+        <f>100*0.255206089643436</f>
+        <v>25.520608964343598</v>
+      </c>
+      <c r="M12" s="79"/>
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="79">
+        <f>100*0.315451142708593</f>
+        <v>31.545114270859298</v>
+      </c>
+      <c r="M13" s="79"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="3:14">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="79">
+        <f>100*0.32746782796851</f>
+        <v>32.746782796851001</v>
+      </c>
+      <c r="M14" s="79"/>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="3:14">
+      <c r="C15" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="79">
+        <f>100*0.327302947231187</f>
+        <v>32.730294723118703</v>
+      </c>
+      <c r="M15" s="79"/>
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="3:14">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="79">
+        <f>100*0.32188090221779</f>
+        <v>32.188090221778999</v>
+      </c>
+      <c r="M16" s="79"/>
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="J17" s="13"/>
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="13">
+        <f>100*0.254774974023341</f>
+        <v>25.477497402334098</v>
+      </c>
+      <c r="N18" s="31"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="13">
+        <f>100*0.314598789760707</f>
+        <v>31.459878976070698</v>
+      </c>
+      <c r="N19" s="31"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="82">
+        <f>100*0.332379318870827</f>
+        <v>33.237931887082702</v>
+      </c>
+      <c r="N20" s="31"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="79">
+        <f>100*0.326215301109042</f>
+        <v>32.621530110904203</v>
+      </c>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="79">
+        <f>100*0.321879845717917</f>
+        <v>32.187984571791702</v>
+      </c>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="J23" s="13"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="13">
+        <f>100*0.255507613204287</f>
+        <v>25.550761320428698</v>
+      </c>
+      <c r="M24" s="13"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="13">
+        <f>100*0.315451142708593</f>
+        <v>31.545114270859298</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="31"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="13">
+        <f>100*0.327788544491687</f>
+        <v>32.778854449168698</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="31"/>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="13">
+        <f>100*0.327302947231187</f>
+        <v>32.730294723118703</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="31"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="79">
+        <f>100*0.321957268024801</f>
+        <v>32.195726802480102</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="31"/>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="J29" s="13"/>
+      <c r="N29" s="31"/>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="13">
+        <f>100*0.255206089643436</f>
+        <v>25.520608964343598</v>
+      </c>
+      <c r="M30" s="13"/>
+      <c r="N30" s="31"/>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="79">
+        <f>100*0.254419125323555</f>
+        <v>25.441912532355499</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="13"/>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="48">
+        <f>100*0.326565954508272</f>
+        <v>32.656595450827204</v>
+      </c>
+      <c r="M32" s="13"/>
+      <c r="N32" s="31"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="79">
+        <f>100*0.326672711335865</f>
+        <v>32.667271133586503</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="79">
+        <f>100*0.321263456817926</f>
+        <v>32.1263456817926</v>
+      </c>
+      <c r="M34" s="13"/>
+      <c r="N34" s="31"/>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="J35" s="13"/>
+      <c r="N35" s="31"/>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="N36" s="31"/>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="13">
+        <f>100*0.240681871705643</f>
+        <v>24.0681871705643</v>
+      </c>
+      <c r="N37" s="31"/>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="13">
+        <f>100*0.327756967760434</f>
+        <v>32.775696776043404</v>
+      </c>
+      <c r="N38" s="31"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="C39" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="13">
+        <f>100*0.327215978663677</f>
+        <v>32.721597866367702</v>
+      </c>
+      <c r="N39" s="31"/>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="13">
+        <f>100*0.322042605903539</f>
+        <v>32.204260590353897</v>
+      </c>
+      <c r="N40" s="31"/>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="J41" s="13"/>
+      <c r="N41" s="31"/>
+    </row>
+    <row r="42" spans="3:14">
+      <c r="C42" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="24">
+        <v>1</v>
+      </c>
+      <c r="G42" s="58">
+        <f>100*0.358462182012152</f>
+        <v>35.846218201215201</v>
+      </c>
+      <c r="H42" s="21">
+        <f>100*0.633378912436381</f>
+        <v>63.337891243638097</v>
+      </c>
+      <c r="I42" s="26">
+        <f>100*0.411765673934286</f>
+        <v>41.176567393428599</v>
+      </c>
+      <c r="J42" s="22">
+        <f>100*0.340449469392756</f>
+        <v>34.044946939275597</v>
+      </c>
+      <c r="L42" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="74"/>
+      <c r="N42" s="31"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="C43" s="53"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="25">
+        <v>5</v>
+      </c>
+      <c r="G43" s="59"/>
+      <c r="H43" s="32">
+        <f>100*0.695336409341215</f>
+        <v>69.533640934121493</v>
+      </c>
+      <c r="I43" s="23">
+        <f>100*0.431267677077956</f>
+        <v>43.126767707795601</v>
+      </c>
+      <c r="J43" s="23">
+        <f>100*0.340496168006096</f>
+        <v>34.049616800609598</v>
+      </c>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="31"/>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="C44" s="54"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="17">
+        <v>10</v>
+      </c>
+      <c r="G44" s="60"/>
+      <c r="H44" s="45">
+        <f>100*0.709714023667025</f>
+        <v>70.971402366702492</v>
+      </c>
+      <c r="I44" s="19">
+        <f>100*0.430079493471261</f>
+        <v>43.0079493471261</v>
+      </c>
+      <c r="J44" s="43">
+        <f>100*0.340528178057137</f>
+        <v>34.052817805713701</v>
+      </c>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="31"/>
+    </row>
+    <row r="45" spans="3:14">
+      <c r="C45" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="24">
+        <v>1</v>
+      </c>
+      <c r="G45" s="58">
+        <f>100*0.358462182012152</f>
+        <v>35.846218201215201</v>
+      </c>
+      <c r="H45" s="21">
+        <f>100*0.632929989130271</f>
+        <v>63.292998913027098</v>
+      </c>
+      <c r="I45" s="26">
+        <f>100*0.412055871382007</f>
+        <v>41.205587138200698</v>
+      </c>
+      <c r="J45" s="22">
+        <f>100*0.340755824765627</f>
+        <v>34.075582476562701</v>
+      </c>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="31"/>
+    </row>
+    <row r="46" spans="3:14">
+      <c r="C46" s="53"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="25">
+        <v>5</v>
+      </c>
+      <c r="G46" s="59"/>
+      <c r="H46" s="20">
+        <f>100*0.694048395883354</f>
+        <v>69.404839588335392</v>
+      </c>
+      <c r="I46" s="27">
+        <f>100*0.420648087639957</f>
+        <v>42.0648087639957</v>
+      </c>
+      <c r="J46" s="23">
+        <f>100*0.340792224691425</f>
+        <v>34.079222469142501</v>
+      </c>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+    </row>
+    <row r="47" spans="3:14" ht="16" customHeight="1">
+      <c r="C47" s="54"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="17">
+        <v>10</v>
+      </c>
+      <c r="G47" s="60"/>
+      <c r="H47" s="42">
+        <f>100*0.711065982382695</f>
+        <v>71.106598238269498</v>
+      </c>
+      <c r="I47" s="19">
+        <f>100*0.418534832577313</f>
+        <v>41.853483257731298</v>
+      </c>
+      <c r="J47" s="43">
+        <f>100*0.34078052386673</f>
+        <v>34.078052386673001</v>
+      </c>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="79">
+        <f>100*0.3407</f>
+        <v>34.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="L42:M47"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E45:E47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AEC266-42DD-E043-AAC0-5464DA154104}">
+  <dimension ref="B2:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22" t="s">
-        <v>3</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="34">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="26"/>
+    <row r="3" spans="2:13" ht="68">
+      <c r="B3" s="65"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="24"/>
+        <v>4</v>
+      </c>
+      <c r="I3" s="75"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>4</v>
+      <c r="B4" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="66">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
@@ -820,19 +1686,19 @@
         <f>100*0.408176081534362</f>
         <v>40.817608153436204</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="16">
         <f>100*0.268391861919164</f>
         <v>26.839186191916397</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="28"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="7">
         <f>0.658387204449097*100</f>
         <v>65.838720444909711</v>
@@ -847,13 +1713,13 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="28"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="9">
         <f>100*0.67706023296069</f>
         <v>67.706023296068992</v>
@@ -868,41 +1734,43 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="28"/>
-      <c r="C7" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="C7" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="66">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="33">
         <f>100*0.591013402538371</f>
         <v>59.101340253837101</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="34">
         <f>100*0.416572169336208</f>
         <v>41.657216933620802</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="34">
         <f>100*0.265527587955381</f>
         <v>26.5527587955381</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="28"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="7">
         <f>0.650766445514131*100</f>
         <v>65.076644551413096</v>
@@ -916,216 +1784,399 @@
         <v>25.523072784070798</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1">
-      <c r="B9" s="28"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="3">
+    <row r="9" spans="2:13">
+      <c r="B9" s="54"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="7">
+      <c r="F9" s="68"/>
+      <c r="G9" s="9">
         <f>100*0.660247281857768</f>
         <v>66.024728185776809</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="10">
         <f>100*0.425275529746539</f>
         <v>42.527552974653901</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="36">
         <f>100*0.25472845577345</f>
         <v>25.472845577344998</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="16" customHeight="1">
-      <c r="B10" s="28"/>
-      <c r="C10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="33" t="s">
+    <row r="10" spans="2:13">
+      <c r="B10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="50">
+      <c r="C10" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="66">
+        <f>0.36379314092195*100</f>
+        <v>36.379314092194996</v>
+      </c>
+      <c r="G10" s="33">
+        <f>100*0.606352450822071</f>
+        <v>60.635245082207099</v>
+      </c>
+      <c r="H10" s="34">
+        <f>100*0.41243622650745</f>
+        <v>41.243622650744996</v>
+      </c>
+      <c r="I10" s="14">
+        <f>100*0.266153698285725</f>
+        <v>26.615369828572501</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="53"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="7">
+        <f>100*0.6667034520998</f>
+        <v>66.670345209979999</v>
+      </c>
+      <c r="H11" s="8">
+        <f>100*0.429609365221545</f>
+        <v>42.960936522154505</v>
+      </c>
+      <c r="I11" s="35">
+        <f>100*0.248726504023165</f>
+        <v>24.872650402316502</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="54"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="9">
+        <f>100*0.682087556614694</f>
+        <v>68.208755661469397</v>
+      </c>
+      <c r="H12" s="10">
+        <f>100*0.430232488119187</f>
+        <v>43.023248811918705</v>
+      </c>
+      <c r="I12" s="41">
+        <f>100*0.248088436467656</f>
+        <v>24.808843646765599</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="24">
+        <v>1</v>
+      </c>
+      <c r="F14" s="58">
         <f>100*0.358462182012152</f>
         <v>35.846218201215201</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G14" s="21">
         <f>100*0.633378912436381</f>
         <v>63.337891243638097</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H14" s="26">
         <f>100*0.411765673934286</f>
         <v>41.176567393428599</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I14" s="22">
         <f>100*0.340449469392756</f>
         <v>34.044946939275597</v>
       </c>
-      <c r="K10" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="60"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="51">
+      <c r="K14" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="74"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="53"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="25">
         <v>5</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="61">
+      <c r="F15" s="59"/>
+      <c r="G15" s="32">
         <f>100*0.695336409341215</f>
         <v>69.533640934121493</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H15" s="23">
         <f>100*0.431267677077956</f>
         <v>43.126767707795601</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I15" s="23">
         <f>100*0.340496168006096</f>
         <v>34.049616800609598</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="60"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="28"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="51">
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="54"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="17">
         <v>10</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="46">
+      <c r="F16" s="60"/>
+      <c r="G16" s="42">
         <f>100*0.709714023667025</f>
         <v>70.971402366702492</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H16" s="19">
         <f>100*0.430079493471261</f>
         <v>43.0079493471261</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I16" s="43">
         <f>100*0.340528178057137</f>
         <v>34.052817805713701</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="60"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="28"/>
-      <c r="C13" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="50">
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F17" s="58">
         <f>100*0.358462182012152</f>
         <v>35.846218201215201</v>
       </c>
-      <c r="G13" s="47">
-        <f>100*0.604455940134864</f>
-        <v>60.445594013486406</v>
-      </c>
-      <c r="H13" s="52">
-        <f>100*0.407138925307856</f>
-        <v>40.7138925307856</v>
-      </c>
-      <c r="I13" s="57">
-        <f>100*0.340219418014607</f>
-        <v>34.021941801460699</v>
-      </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="60"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="28"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="51">
+      <c r="G17" s="21">
+        <f>100*0.632929989130271</f>
+        <v>63.292998913027098</v>
+      </c>
+      <c r="H17" s="26">
+        <f>100*0.412055871382007</f>
+        <v>41.205587138200698</v>
+      </c>
+      <c r="I17" s="28">
+        <f>100*0.340755824765627</f>
+        <v>34.075582476562701</v>
+      </c>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="53"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="25">
         <v>5</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="45">
-        <f>100*0.671369116857777</f>
-        <v>67.136911685777704</v>
-      </c>
-      <c r="H14" s="53">
-        <f>100*0.422081610789433</f>
-        <v>42.208161078943299</v>
-      </c>
-      <c r="I14" s="58">
-        <f>100*0.340232752621877</f>
-        <v>34.023275262187703</v>
-      </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="60"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="29"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="42">
+      <c r="F18" s="59"/>
+      <c r="G18" s="20">
+        <f>100*0.694048395883354</f>
+        <v>69.404839588335392</v>
+      </c>
+      <c r="H18" s="27">
+        <f>100*0.420648087639957</f>
+        <v>42.0648087639957</v>
+      </c>
+      <c r="I18" s="29">
+        <f>100*0.340792224691425</f>
+        <v>34.079222469142501</v>
+      </c>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="54"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="17">
         <v>10</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="43">
-        <f>100*0.688346930256841</f>
-        <v>68.834693025684103</v>
-      </c>
-      <c r="H15" s="44">
-        <f>100*0.421737032666688</f>
-        <v>42.173703266668802</v>
-      </c>
-      <c r="I15" s="59">
-        <f>100*0.340147808687311</f>
-        <v>34.014780868731101</v>
-      </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="60"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="32"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="32"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="18">
+        <f>100*0.711065982382695</f>
+        <v>71.106598238269498</v>
+      </c>
+      <c r="H19" s="19">
+        <f>100*0.418534832577313</f>
+        <v>41.853483257731298</v>
+      </c>
+      <c r="I19" s="30">
+        <f>100*0.34078052386673</f>
+        <v>34.078052386673001</v>
+      </c>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F10:F12"/>
+  <mergeCells count="27">
+    <mergeCell ref="K14:L19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="K10:L15"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F7:F9"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79ABBC2-01EE-864F-9B62-9F9942C57DC1}">
+  <dimension ref="B3:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="79">
+        <f>100*0.340619476503454</f>
+        <v>34.061947650345395</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="79">
+        <f>100*0.29551051559282</f>
+        <v>29.551051559281998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="79">
+        <f>100*0.321091898818151</f>
+        <v>32.109189881815098</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="79">
+        <f>100*0.320131103992461</f>
+        <v>32.013110399246095</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="79">
+        <f>100*0.316479933461255</f>
+        <v>31.647993346125503</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="I8" s="79"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="79">
+        <f>100*0.340434832094393</f>
+        <v>34.043483209439302</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="79"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="79"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="79"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="79"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/seq2seq_results.xlsx
+++ b/Results/seq2seq_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/Documents/GitHub/sockeye-recipes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727A7530-72B2-8D48-8AB5-9FEE33B2083E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B6B332-0FAE-3040-B4A0-B43FA4A8A016}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="460" windowWidth="23800" windowHeight="16540" xr2:uid="{63800894-6832-2440-9083-EFA27E428687}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Input_Format</t>
   </si>
@@ -95,40 +95,22 @@
     <t>Beam Size 100, clustering/reranking with simplicity</t>
   </si>
   <si>
-    <t>Beam Size 400, clustering/reranking with perplexity</t>
-  </si>
-  <si>
-    <t>Beam Size 400, clustering/reranking with fluency</t>
-  </si>
-  <si>
-    <t>Beam Size 400, clustering/reranking with simplicity</t>
-  </si>
-  <si>
-    <t>Beam Size 400, clustering/reranking with perplexity, fluency, simplicity evenly</t>
-  </si>
-  <si>
     <t>Beam Size 100, simplified loss, clustering/reranking with perplexity</t>
   </si>
   <si>
-    <t>Beam Size 100, simplified loss, clustering/reranking with fluency</t>
-  </si>
-  <si>
     <t>Beam Size 100, simplified loss, clustering/reranking with simplicity</t>
   </si>
   <si>
-    <t>Beam Size 100, simplified loss, clustering/reranking with perplexity, fluency, simplicity evenly</t>
-  </si>
-  <si>
     <t>Beam Size 100, clustering/reranking with perplexity, diverse beam</t>
   </si>
   <si>
-    <t>Beam Size 100, clustering/reranking with fluency, diverse beam</t>
-  </si>
-  <si>
     <t>Beam Size 100, clustering/reranking with simplicity, diverse beam</t>
   </si>
   <si>
-    <t>Beam Size 100, clustering/reranking with perplexity, fluency, simplicity evenly, diverse beam</t>
+    <t>Beam Size 100, clustering/reranking with simplicity, ngram blocking</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with perplexity, ngram blocking</t>
   </si>
   <si>
     <t>Beam Size 100</t>
@@ -137,12 +119,12 @@
     <t>Beam Size 100, simplified loss</t>
   </si>
   <si>
+    <t>Beam Size 100, ngram blocking</t>
+  </si>
+  <si>
     <t>Beam Size 100, diverse beam</t>
   </si>
   <si>
-    <t>Beam Size 400</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -159,6 +141,33 @@
   </si>
   <si>
     <t>Beam Size 100, diverse beam, simplified loss, clustering/reranking with perplexity, fluency, simplicity evenly</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with relevancy, ngram blocking</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with perplexity, relevancy, simplicity evenly, ngram blocking</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with relevancy</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with perplexity, relevancy, simplicity evenly</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with relevancy, diverse beam</t>
+  </si>
+  <si>
+    <t>Beam Size 100, clustering/reranking with perplexity, relevancy, simplicity evenly, diverse beam</t>
+  </si>
+  <si>
+    <t>Beam Size 100, simplified loss, clustering/reranking with relevancy</t>
+  </si>
+  <si>
+    <t>Beam Size 100, simplified loss, clustering/reranking with perplexity, relevancy, simplicity evenly</t>
+  </si>
+  <si>
+    <t>Beam Size 100, diverse beam, simplified loss, clustering/reranking with relevancy</t>
   </si>
 </sst>
 </file>
@@ -899,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3362A2F3-D871-0C4B-B155-B5D900831316}">
-  <dimension ref="C2:N49"/>
+  <dimension ref="C2:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:J16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1128,7 +1137,7 @@
     </row>
     <row r="12" spans="3:14">
       <c r="C12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J12" s="79">
         <f>100*0.255206089643436</f>
@@ -1142,6 +1151,10 @@
         <v>18</v>
       </c>
       <c r="J13" s="79">
+        <f>100*0.316471733078414</f>
+        <v>31.647173307841399</v>
+      </c>
+      <c r="L13" s="79">
         <f>100*0.315451142708593</f>
         <v>31.545114270859298</v>
       </c>
@@ -1150,9 +1163,13 @@
     </row>
     <row r="14" spans="3:14">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J14" s="79">
+        <f>100*0.309382963944089</f>
+        <v>30.938296394408898</v>
+      </c>
+      <c r="L14" s="79">
         <f>100*0.32746782796851</f>
         <v>32.746782796851001</v>
       </c>
@@ -1164,6 +1181,10 @@
         <v>21</v>
       </c>
       <c r="J15" s="79">
+        <f>100*0.319268879891995</f>
+        <v>31.9268879891995</v>
+      </c>
+      <c r="L15" s="79">
         <f>100*0.327302947231187</f>
         <v>32.730294723118703</v>
       </c>
@@ -1172,9 +1193,13 @@
     </row>
     <row r="16" spans="3:14">
       <c r="C16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J16" s="79">
+        <f>100*0.314153326929023</f>
+        <v>31.415332692902297</v>
+      </c>
+      <c r="L16" s="79">
         <f>100*0.32188090221779</f>
         <v>32.188090221778999</v>
       </c>
@@ -1187,51 +1212,48 @@
     </row>
     <row r="18" spans="3:14">
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="13">
-        <f>100*0.254774974023341</f>
-        <v>25.477497402334098</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J18" s="13"/>
       <c r="N18" s="31"/>
     </row>
     <row r="19" spans="3:14">
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="13">
-        <f>100*0.314598789760707</f>
-        <v>31.459878976070698</v>
+        <v>27</v>
+      </c>
+      <c r="J19" s="79">
+        <f>100*0.316471733078414</f>
+        <v>31.647173307841399</v>
       </c>
       <c r="N19" s="31"/>
     </row>
     <row r="20" spans="3:14">
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="82">
-        <f>100*0.332379318870827</f>
-        <v>33.237931887082702</v>
+        <v>38</v>
+      </c>
+      <c r="J20" s="79">
+        <f>100*0.309067905589097</f>
+        <v>30.906790558909702</v>
       </c>
       <c r="N20" s="31"/>
     </row>
     <row r="21" spans="3:14">
       <c r="C21" s="51" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J21" s="79">
-        <f>100*0.326215301109042</f>
-        <v>32.621530110904203</v>
+        <f>100*0.319268879891995</f>
+        <v>31.9268879891995</v>
       </c>
       <c r="N21" s="31"/>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J22" s="79">
-        <f>100*0.321879845717917</f>
-        <v>32.187984571791702</v>
+        <f>100*0.314153577111115</f>
+        <v>31.415357711111504</v>
       </c>
       <c r="N22" s="31"/>
     </row>
@@ -1241,57 +1263,68 @@
     </row>
     <row r="24" spans="3:14">
       <c r="C24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J24" s="13">
-        <f>100*0.255507613204287</f>
-        <v>25.550761320428698</v>
-      </c>
-      <c r="M24" s="13"/>
+        <f>100*0.254774974023341</f>
+        <v>25.477497402334098</v>
+      </c>
       <c r="N24" s="31"/>
     </row>
     <row r="25" spans="3:14">
       <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="13">
-        <f>100*0.315451142708593</f>
-        <v>31.545114270859298</v>
-      </c>
-      <c r="M25" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="J25" s="79">
+        <f>100*0.315651996047711</f>
+        <v>31.565199604771099</v>
+      </c>
+      <c r="L25" s="13">
+        <f>100*0.314598789760707</f>
+        <v>31.459878976070698</v>
+      </c>
       <c r="N25" s="31"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="13">
-        <f>100*0.327788544491687</f>
-        <v>32.778854449168698</v>
-      </c>
-      <c r="M26" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="J26" s="79">
+        <f>100*0.308908121757625</f>
+        <v>30.890812175762498</v>
+      </c>
+      <c r="L26" s="82">
+        <f>100*0.332379318870827</f>
+        <v>33.237931887082702</v>
+      </c>
       <c r="N26" s="31"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="13">
-        <f>100*0.327302947231187</f>
-        <v>32.730294723118703</v>
-      </c>
-      <c r="M27" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="J27" s="79">
+        <f>100*0.321320981289423</f>
+        <v>32.132098128942296</v>
+      </c>
+      <c r="L27" s="79">
+        <f>100*0.326215301109042</f>
+        <v>32.621530110904203</v>
+      </c>
       <c r="N27" s="31"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="J28" s="79">
-        <f>100*0.321957268024801</f>
-        <v>32.195726802480102</v>
-      </c>
-      <c r="M28" s="13"/>
+        <f>100*0.313266615012258</f>
+        <v>31.3266615012258</v>
+      </c>
+      <c r="L28" s="79">
+        <f>100*0.321879845717917</f>
+        <v>32.187984571791702</v>
+      </c>
       <c r="N28" s="31"/>
     </row>
     <row r="29" spans="3:14">
@@ -1299,289 +1332,309 @@
       <c r="N29" s="31"/>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="13">
+      <c r="J30" s="13"/>
+      <c r="N30" s="31"/>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="13">
         <f>100*0.255206089643436</f>
         <v>25.520608964343598</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="31"/>
-    </row>
-    <row r="31" spans="3:14">
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="79">
+      <c r="M31" s="13"/>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="13">
+        <f>100*0.303860896993537</f>
+        <v>30.386089699353704</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="79">
         <f>100*0.254419125323555</f>
         <v>25.441912532355499</v>
       </c>
-      <c r="K31" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="31"/>
-    </row>
-    <row r="32" spans="3:14">
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="48">
+      <c r="M32" s="13"/>
+      <c r="N32" s="31"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="13">
+        <f>100*0.307517808726376</f>
+        <v>30.751780872637603</v>
+      </c>
+      <c r="L33" s="48">
         <f>100*0.326565954508272</f>
         <v>32.656595450827204</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="31"/>
-    </row>
-    <row r="33" spans="3:14">
-      <c r="C33" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="79">
+      <c r="M33" s="13"/>
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="13">
+        <f>100*0.309122964995795</f>
+        <v>30.912296499579501</v>
+      </c>
+      <c r="L34" s="79">
         <f>100*0.326672711335865</f>
         <v>32.667271133586503</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="31"/>
-    </row>
-    <row r="34" spans="3:14">
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="79">
+      <c r="M34" s="13"/>
+      <c r="N34" s="31"/>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="13">
+        <f>100*0.310138930039427</f>
+        <v>31.013893003942698</v>
+      </c>
+      <c r="L35" s="79">
         <f>100*0.321263456817926</f>
         <v>32.1263456817926</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="31"/>
-    </row>
-    <row r="35" spans="3:14">
-      <c r="J35" s="13"/>
+      <c r="M35" s="13"/>
       <c r="N35" s="31"/>
     </row>
     <row r="36" spans="3:14">
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
       <c r="J36" s="13"/>
       <c r="N36" s="31"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J37" s="13">
+        <v>33</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="N37" s="31"/>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="13">
         <f>100*0.240681871705643</f>
         <v>24.0681871705643</v>
       </c>
-      <c r="N37" s="31"/>
-    </row>
-    <row r="38" spans="3:14">
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" s="13">
+      <c r="N38" s="31"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="13">
         <f>100*0.327756967760434</f>
         <v>32.775696776043404</v>
       </c>
-      <c r="N38" s="31"/>
-    </row>
-    <row r="39" spans="3:14">
-      <c r="C39" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="J39" s="13">
+      <c r="N39" s="31"/>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="C40" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="13">
         <f>100*0.327215978663677</f>
         <v>32.721597866367702</v>
       </c>
-      <c r="N39" s="31"/>
-    </row>
-    <row r="40" spans="3:14">
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="13">
+      <c r="N40" s="31"/>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" s="13">
         <f>100*0.322042605903539</f>
         <v>32.204260590353897</v>
       </c>
-      <c r="N40" s="31"/>
-    </row>
-    <row r="41" spans="3:14">
-      <c r="J41" s="13"/>
       <c r="N41" s="31"/>
     </row>
     <row r="42" spans="3:14">
-      <c r="C42" s="52" t="s">
+      <c r="J42" s="13"/>
+      <c r="N42" s="31"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="C43" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="61" t="s">
+      <c r="D43" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="61" t="s">
+      <c r="E43" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F43" s="24">
         <v>1</v>
       </c>
-      <c r="G42" s="58">
+      <c r="G43" s="58">
         <f>100*0.358462182012152</f>
         <v>35.846218201215201</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H43" s="21">
         <f>100*0.633378912436381</f>
         <v>63.337891243638097</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I43" s="26">
         <f>100*0.411765673934286</f>
         <v>41.176567393428599</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J43" s="22">
         <f>100*0.340449469392756</f>
         <v>34.044946939275597</v>
       </c>
-      <c r="L42" s="74" t="s">
+      <c r="L43" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="74"/>
-      <c r="N42" s="31"/>
-    </row>
-    <row r="43" spans="3:14">
-      <c r="C43" s="53"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="25">
+      <c r="M43" s="74"/>
+      <c r="N43" s="31"/>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="C44" s="53"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="25">
         <v>5</v>
       </c>
-      <c r="G43" s="59"/>
-      <c r="H43" s="32">
+      <c r="G44" s="59"/>
+      <c r="H44" s="32">
         <f>100*0.695336409341215</f>
         <v>69.533640934121493</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I44" s="23">
         <f>100*0.431267677077956</f>
         <v>43.126767707795601</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J44" s="23">
         <f>100*0.340496168006096</f>
         <v>34.049616800609598</v>
-      </c>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="31"/>
-    </row>
-    <row r="44" spans="3:14">
-      <c r="C44" s="54"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="17">
-        <v>10</v>
-      </c>
-      <c r="G44" s="60"/>
-      <c r="H44" s="45">
-        <f>100*0.709714023667025</f>
-        <v>70.971402366702492</v>
-      </c>
-      <c r="I44" s="19">
-        <f>100*0.430079493471261</f>
-        <v>43.0079493471261</v>
-      </c>
-      <c r="J44" s="43">
-        <f>100*0.340528178057137</f>
-        <v>34.052817805713701</v>
       </c>
       <c r="L44" s="74"/>
       <c r="M44" s="74"/>
       <c r="N44" s="31"/>
     </row>
     <row r="45" spans="3:14">
-      <c r="C45" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="24">
-        <v>1</v>
-      </c>
-      <c r="G45" s="58">
-        <f>100*0.358462182012152</f>
-        <v>35.846218201215201</v>
-      </c>
-      <c r="H45" s="21">
-        <f>100*0.632929989130271</f>
-        <v>63.292998913027098</v>
-      </c>
-      <c r="I45" s="26">
-        <f>100*0.412055871382007</f>
-        <v>41.205587138200698</v>
-      </c>
-      <c r="J45" s="22">
-        <f>100*0.340755824765627</f>
-        <v>34.075582476562701</v>
+      <c r="C45" s="54"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="17">
+        <v>10</v>
+      </c>
+      <c r="G45" s="60"/>
+      <c r="H45" s="45">
+        <f>100*0.709714023667025</f>
+        <v>70.971402366702492</v>
+      </c>
+      <c r="I45" s="19">
+        <f>100*0.430079493471261</f>
+        <v>43.0079493471261</v>
+      </c>
+      <c r="J45" s="43">
+        <f>100*0.340528178057137</f>
+        <v>34.052817805713701</v>
       </c>
       <c r="L45" s="74"/>
       <c r="M45" s="74"/>
       <c r="N45" s="31"/>
     </row>
     <row r="46" spans="3:14">
-      <c r="C46" s="53"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="25">
+      <c r="C46" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="24">
+        <v>1</v>
+      </c>
+      <c r="G46" s="58">
+        <f>100*0.358462182012152</f>
+        <v>35.846218201215201</v>
+      </c>
+      <c r="H46" s="21">
+        <f>100*0.632929989130271</f>
+        <v>63.292998913027098</v>
+      </c>
+      <c r="I46" s="26">
+        <f>100*0.412055871382007</f>
+        <v>41.205587138200698</v>
+      </c>
+      <c r="J46" s="22">
+        <f>100*0.340755824765627</f>
+        <v>34.075582476562701</v>
+      </c>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="31"/>
+    </row>
+    <row r="47" spans="3:14">
+      <c r="C47" s="53"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="25">
         <v>5</v>
       </c>
-      <c r="G46" s="59"/>
-      <c r="H46" s="20">
+      <c r="G47" s="59"/>
+      <c r="H47" s="20">
         <f>100*0.694048395883354</f>
         <v>69.404839588335392</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I47" s="27">
         <f>100*0.420648087639957</f>
         <v>42.0648087639957</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J47" s="23">
         <f>100*0.340792224691425</f>
         <v>34.079222469142501</v>
       </c>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-    </row>
-    <row r="47" spans="3:14" ht="16" customHeight="1">
-      <c r="C47" s="54"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="17">
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+    </row>
+    <row r="48" spans="3:14" ht="16" customHeight="1">
+      <c r="C48" s="54"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="17">
         <v>10</v>
       </c>
-      <c r="G47" s="60"/>
-      <c r="H47" s="42">
+      <c r="G48" s="60"/>
+      <c r="H48" s="42">
         <f>100*0.711065982382695</f>
         <v>71.106598238269498</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I48" s="19">
         <f>100*0.418534832577313</f>
         <v>41.853483257731298</v>
       </c>
-      <c r="J47" s="43">
+      <c r="J48" s="43">
         <f>100*0.34078052386673</f>
         <v>34.078052386673001</v>
       </c>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-    </row>
-    <row r="49" spans="10:10">
-      <c r="J49" s="79">
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="79">
         <f>100*0.3407</f>
         <v>34.07</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L42:M47"/>
+    <mergeCell ref="L43:M48"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="D4:D6"/>
@@ -1594,16 +1647,16 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E46:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2090,14 +2143,14 @@
   <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I4" sqref="I4:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="3" spans="2:9">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I3" s="79">
         <f>100*0.340619476503454</f>
@@ -2145,7 +2198,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="51" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I9" s="79">
         <f>100*0.340434832094393</f>
@@ -2154,25 +2207,25 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I10" s="79"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I11" s="79"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="51" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I12" s="79"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I13" s="79"/>
     </row>

--- a/Results/seq2seq_results.xlsx
+++ b/Results/seq2seq_results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/Documents/GitHub/sockeye-recipes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B6B332-0FAE-3040-B4A0-B43FA4A8A016}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0EAE9C-0BC6-254F-9BF8-6A8048CBD9CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="460" windowWidth="23800" windowHeight="16540" xr2:uid="{63800894-6832-2440-9083-EFA27E428687}"/>
+    <workbookView xWindow="2740" yWindow="700" windowWidth="23800" windowHeight="16540" xr2:uid="{63800894-6832-2440-9083-EFA27E428687}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>Input_Format</t>
   </si>
@@ -168,6 +169,39 @@
   </si>
   <si>
     <t>Beam Size 100, diverse beam, simplified loss, clustering/reranking with relevancy</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>DMASS</t>
+  </si>
+  <si>
+    <t>DRESS-LS</t>
+  </si>
+  <si>
+    <t>Seq2Seq</t>
+  </si>
+  <si>
+    <t>Seq2Seq-L</t>
+  </si>
+  <si>
+    <t>Seq2Seq-CR</t>
+  </si>
+  <si>
+    <t>Seq2Seq-DR</t>
+  </si>
+  <si>
+    <t>Seq2Seq-LDCR</t>
+  </si>
+  <si>
+    <t>Newsela-V1</t>
+  </si>
+  <si>
+    <t>Seq2Seq-R</t>
   </si>
 </sst>
 </file>
@@ -223,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -348,11 +382,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -501,6 +563,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -510,39 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,32 +635,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,10 +989,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764128D6-8239-9A43-B305-73DAA010AA3C}">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="87">
+        <f>100*0.363201298632058</f>
+        <v>36.3201298632058</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="87">
+        <f>100*0.360304975885519</f>
+        <v>36.030497588551903</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="87">
+        <f>100*0.359983168194613</f>
+        <v>35.998316819461301</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="88">
+        <f>100*0.343451991460067</f>
+        <v>34.345199146006699</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="87">
+        <f>100*0.360304975885519</f>
+        <v>36.030497588551903</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="87">
+        <f>100*0.364725073208579</f>
+        <v>36.4725073208579</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="89">
+        <f>100*0.372244223768009</f>
+        <v>37.224422376800895</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="87">
+        <f>100*0.353649187876813</f>
+        <v>35.364918787681297</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="90">
+        <f>100*0.371089134818915</f>
+        <v>37.108913481891499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3362A2F3-D871-0C4B-B155-B5D900831316}">
   <dimension ref="C2:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -921,38 +1111,38 @@
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:14">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="80" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="60" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="3:14" ht="34">
-      <c r="C3" s="65"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
@@ -962,24 +1152,24 @@
       <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="81"/>
+      <c r="J3" s="61"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="3:14">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="68">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
@@ -997,13 +1187,13 @@
       </c>
     </row>
     <row r="5" spans="3:14">
-      <c r="C5" s="53"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="67"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="7">
         <f>0.650766445514131*100</f>
         <v>65.076644551413096</v>
@@ -1018,13 +1208,13 @@
       </c>
     </row>
     <row r="6" spans="3:14" ht="15" customHeight="1">
-      <c r="C6" s="54"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="68"/>
+      <c r="G6" s="70"/>
       <c r="H6" s="9">
         <f>100*0.660247281857768</f>
         <v>66.024728185776809</v>
@@ -1033,25 +1223,25 @@
         <f>100*0.425275529746539</f>
         <v>42.527552974653901</v>
       </c>
-      <c r="J6" s="76">
+      <c r="J6" s="52">
         <f>100*0.25472845577345</f>
         <v>25.472845577344998</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="15" customHeight="1">
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="65" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="68">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
@@ -1069,13 +1259,13 @@
       </c>
     </row>
     <row r="8" spans="3:14" ht="15" customHeight="1">
-      <c r="C8" s="53"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="53"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="7">
         <f>100*0.6667034520998</f>
         <v>66.670345209979999</v>
@@ -1084,19 +1274,19 @@
         <f>100*0.429609365221545</f>
         <v>42.960936522154505</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="53">
         <f>100*0.248726504023165</f>
         <v>24.872650402316502</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15" customHeight="1">
-      <c r="C9" s="54"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="70"/>
       <c r="H9" s="46">
         <f>100*0.682087556614694</f>
         <v>68.208755661469397</v>
@@ -1105,7 +1295,7 @@
         <f>100*0.430232488119187</f>
         <v>43.023248811918705</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="54">
         <f>100*0.248088436467656</f>
         <v>24.808843646765599</v>
       </c>
@@ -1126,7 +1316,7 @@
         <f>100*0.414290738977201</f>
         <v>41.429073897720095</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="55">
         <f>100*0.269782958179585</f>
         <v>26.978295817958497</v>
       </c>
@@ -1139,71 +1329,71 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="55">
         <f>100*0.255206089643436</f>
         <v>25.520608964343598</v>
       </c>
-      <c r="M12" s="79"/>
+      <c r="M12" s="55"/>
       <c r="N12" s="31"/>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="55">
         <f>100*0.316471733078414</f>
         <v>31.647173307841399</v>
       </c>
-      <c r="L13" s="79">
+      <c r="L13" s="55">
         <f>100*0.315451142708593</f>
         <v>31.545114270859298</v>
       </c>
-      <c r="M13" s="79"/>
+      <c r="M13" s="55"/>
       <c r="N13" s="31"/>
     </row>
     <row r="14" spans="3:14">
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="55">
         <f>100*0.309382963944089</f>
         <v>30.938296394408898</v>
       </c>
-      <c r="L14" s="79">
+      <c r="L14" s="55">
         <f>100*0.32746782796851</f>
         <v>32.746782796851001</v>
       </c>
-      <c r="M14" s="79"/>
+      <c r="M14" s="55"/>
       <c r="N14" s="31"/>
     </row>
     <row r="15" spans="3:14">
       <c r="C15" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="79">
+      <c r="J15" s="55">
         <f>100*0.319268879891995</f>
         <v>31.9268879891995</v>
       </c>
-      <c r="L15" s="79">
+      <c r="L15" s="55">
         <f>100*0.327302947231187</f>
         <v>32.730294723118703</v>
       </c>
-      <c r="M15" s="79"/>
+      <c r="M15" s="55"/>
       <c r="N15" s="31"/>
     </row>
     <row r="16" spans="3:14">
       <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="79">
+      <c r="J16" s="55">
         <f>100*0.314153326929023</f>
         <v>31.415332692902297</v>
       </c>
-      <c r="L16" s="79">
+      <c r="L16" s="55">
         <f>100*0.32188090221779</f>
         <v>32.188090221778999</v>
       </c>
-      <c r="M16" s="79"/>
+      <c r="M16" s="55"/>
       <c r="N16" s="31"/>
     </row>
     <row r="17" spans="3:14">
@@ -1221,7 +1411,7 @@
       <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J19" s="55">
         <f>100*0.316471733078414</f>
         <v>31.647173307841399</v>
       </c>
@@ -1231,7 +1421,7 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="55">
         <f>100*0.309067905589097</f>
         <v>30.906790558909702</v>
       </c>
@@ -1241,7 +1431,7 @@
       <c r="C21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="55">
         <f>100*0.319268879891995</f>
         <v>31.9268879891995</v>
       </c>
@@ -1251,7 +1441,7 @@
       <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="79">
+      <c r="J22" s="55">
         <f>100*0.314153577111115</f>
         <v>31.415357711111504</v>
       </c>
@@ -1275,7 +1465,7 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="79">
+      <c r="J25" s="55">
         <f>100*0.315651996047711</f>
         <v>31.565199604771099</v>
       </c>
@@ -1289,11 +1479,11 @@
       <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="79">
+      <c r="J26" s="55">
         <f>100*0.308908121757625</f>
         <v>30.890812175762498</v>
       </c>
-      <c r="L26" s="82">
+      <c r="L26" s="56">
         <f>100*0.332379318870827</f>
         <v>33.237931887082702</v>
       </c>
@@ -1303,11 +1493,11 @@
       <c r="C27" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="79">
+      <c r="J27" s="55">
         <f>100*0.321320981289423</f>
         <v>32.132098128942296</v>
       </c>
-      <c r="L27" s="79">
+      <c r="L27" s="55">
         <f>100*0.326215301109042</f>
         <v>32.621530110904203</v>
       </c>
@@ -1317,11 +1507,11 @@
       <c r="C28" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="79">
+      <c r="J28" s="55">
         <f>100*0.313266615012258</f>
         <v>31.3266615012258</v>
       </c>
-      <c r="L28" s="79">
+      <c r="L28" s="55">
         <f>100*0.321879845717917</f>
         <v>32.187984571791702</v>
       </c>
@@ -1357,7 +1547,7 @@
       <c r="K32" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="79">
+      <c r="L32" s="55">
         <f>100*0.254419125323555</f>
         <v>25.441912532355499</v>
       </c>
@@ -1387,7 +1577,7 @@
         <f>100*0.309122964995795</f>
         <v>30.912296499579501</v>
       </c>
-      <c r="L34" s="79">
+      <c r="L34" s="55">
         <f>100*0.326672711335865</f>
         <v>32.667271133586503</v>
       </c>
@@ -1402,7 +1592,7 @@
         <f>100*0.310138930039427</f>
         <v>31.013893003942698</v>
       </c>
-      <c r="L35" s="79">
+      <c r="L35" s="55">
         <f>100*0.321263456817926</f>
         <v>32.1263456817926</v>
       </c>
@@ -1465,19 +1655,19 @@
       <c r="N42" s="31"/>
     </row>
     <row r="43" spans="3:14">
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="24">
         <v>1</v>
       </c>
-      <c r="G43" s="58">
+      <c r="G43" s="76">
         <f>100*0.358462182012152</f>
         <v>35.846218201215201</v>
       </c>
@@ -1493,20 +1683,20 @@
         <f>100*0.340449469392756</f>
         <v>34.044946939275597</v>
       </c>
-      <c r="L43" s="74" t="s">
+      <c r="L43" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="74"/>
+      <c r="M43" s="57"/>
       <c r="N43" s="31"/>
     </row>
     <row r="44" spans="3:14">
-      <c r="C44" s="53"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
       <c r="F44" s="25">
         <v>5</v>
       </c>
-      <c r="G44" s="59"/>
+      <c r="G44" s="77"/>
       <c r="H44" s="32">
         <f>100*0.695336409341215</f>
         <v>69.533640934121493</v>
@@ -1519,18 +1709,18 @@
         <f>100*0.340496168006096</f>
         <v>34.049616800609598</v>
       </c>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
       <c r="N44" s="31"/>
     </row>
     <row r="45" spans="3:14">
-      <c r="C45" s="54"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
       <c r="F45" s="17">
         <v>10</v>
       </c>
-      <c r="G45" s="60"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="45">
         <f>100*0.709714023667025</f>
         <v>70.971402366702492</v>
@@ -1543,24 +1733,24 @@
         <f>100*0.340528178057137</f>
         <v>34.052817805713701</v>
       </c>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
       <c r="N45" s="31"/>
     </row>
     <row r="46" spans="3:14">
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="61" t="s">
+      <c r="E46" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F46" s="24">
         <v>1</v>
       </c>
-      <c r="G46" s="58">
+      <c r="G46" s="76">
         <f>100*0.358462182012152</f>
         <v>35.846218201215201</v>
       </c>
@@ -1576,18 +1766,18 @@
         <f>100*0.340755824765627</f>
         <v>34.075582476562701</v>
       </c>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
       <c r="N46" s="31"/>
     </row>
     <row r="47" spans="3:14">
-      <c r="C47" s="53"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="62"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="25">
         <v>5</v>
       </c>
-      <c r="G47" s="59"/>
+      <c r="G47" s="77"/>
       <c r="H47" s="20">
         <f>100*0.694048395883354</f>
         <v>69.404839588335392</v>
@@ -1600,17 +1790,17 @@
         <f>100*0.340792224691425</f>
         <v>34.079222469142501</v>
       </c>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
     </row>
     <row r="48" spans="3:14" ht="16" customHeight="1">
-      <c r="C48" s="54"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="63"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="64"/>
       <c r="F48" s="17">
         <v>10</v>
       </c>
-      <c r="G48" s="60"/>
+      <c r="G48" s="78"/>
       <c r="H48" s="42">
         <f>100*0.711065982382695</f>
         <v>71.106598238269498</v>
@@ -1623,17 +1813,24 @@
         <f>100*0.34078052386673</f>
         <v>34.078052386673001</v>
       </c>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
     </row>
     <row r="50" spans="10:10">
-      <c r="J50" s="79">
+      <c r="J50" s="55">
         <f>100*0.3407</f>
         <v>34.07</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E46:E48"/>
     <mergeCell ref="L43:M48"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="J2:J3"/>
@@ -1650,19 +1847,12 @@
     <mergeCell ref="G43:G45"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E46:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AEC266-42DD-E043-AAC0-5464DA154104}">
   <dimension ref="B2:M19"/>
   <sheetViews>
@@ -1673,34 +1863,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:13" ht="68">
-      <c r="B3" s="65"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1710,24 +1900,24 @@
       <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="75"/>
+      <c r="I3" s="82"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="62" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="68">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
@@ -1745,13 +1935,13 @@
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="53"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="7">
         <f>0.658387204449097*100</f>
         <v>65.838720444909711</v>
@@ -1766,13 +1956,13 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="53"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="9">
         <f>100*0.67706023296069</f>
         <v>67.706023296068992</v>
@@ -1787,19 +1977,19 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="62" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="68">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
@@ -1817,13 +2007,13 @@
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="53"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="7">
         <f>0.650766445514131*100</f>
         <v>65.076644551413096</v>
@@ -1838,13 +2028,13 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="54"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="9">
         <f>100*0.660247281857768</f>
         <v>66.024728185776809</v>
@@ -1859,19 +2049,19 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="65" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="68">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
@@ -1889,13 +2079,13 @@
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="53"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="53"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="67"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="7">
         <f>100*0.6667034520998</f>
         <v>66.670345209979999</v>
@@ -1910,13 +2100,13 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="54"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="54"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="68"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="9">
         <f>100*0.682087556614694</f>
         <v>68.208755661469397</v>
@@ -1941,19 +2131,19 @@
       <c r="I13" s="40"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="62" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="76">
         <f>100*0.358462182012152</f>
         <v>35.846218201215201</v>
       </c>
@@ -1969,20 +2159,20 @@
         <f>100*0.340449469392756</f>
         <v>34.044946939275597</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="74"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="53"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="62"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="25">
         <v>5</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="32">
         <f>100*0.695336409341215</f>
         <v>69.533640934121493</v>
@@ -1995,18 +2185,18 @@
         <f>100*0.340496168006096</f>
         <v>34.049616800609598</v>
       </c>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="54"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="63"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="17">
         <v>10</v>
       </c>
-      <c r="F16" s="60"/>
+      <c r="F16" s="78"/>
       <c r="G16" s="42">
         <f>100*0.709714023667025</f>
         <v>70.971402366702492</v>
@@ -2019,24 +2209,24 @@
         <f>100*0.340528178057137</f>
         <v>34.052817805713701</v>
       </c>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="62" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="76">
         <f>100*0.358462182012152</f>
         <v>35.846218201215201</v>
       </c>
@@ -2052,18 +2242,18 @@
         <f>100*0.340755824765627</f>
         <v>34.075582476562701</v>
       </c>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="53"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="62"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="25">
         <v>5</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="20">
         <f>100*0.694048395883354</f>
         <v>69.404839588335392</v>
@@ -2076,18 +2266,18 @@
         <f>100*0.340792224691425</f>
         <v>34.079222469142501</v>
       </c>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="54"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="63"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="17">
         <v>10</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="18">
         <f>100*0.711065982382695</f>
         <v>71.106598238269498</v>
@@ -2100,17 +2290,26 @@
         <f>100*0.34078052386673</f>
         <v>34.078052386673001</v>
       </c>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
       <c r="M19" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K14:L19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
@@ -2119,26 +2318,17 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="F14:F16"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K14:L19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F17:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79ABBC2-01EE-864F-9B62-9F9942C57DC1}">
   <dimension ref="B3:I13"/>
   <sheetViews>
@@ -2152,7 +2342,7 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="79">
+      <c r="I3" s="55">
         <f>100*0.340619476503454</f>
         <v>34.061947650345395</v>
       </c>
@@ -2161,7 +2351,7 @@
       <c r="B4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="55">
         <f>100*0.29551051559282</f>
         <v>29.551051559281998</v>
       </c>
@@ -2170,7 +2360,7 @@
       <c r="B5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="55">
         <f>100*0.321091898818151</f>
         <v>32.109189881815098</v>
       </c>
@@ -2179,7 +2369,7 @@
       <c r="B6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="55">
         <f>100*0.320131103992461</f>
         <v>32.013110399246095</v>
       </c>
@@ -2188,19 +2378,19 @@
       <c r="B7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="79">
+      <c r="I7" s="55">
         <f>100*0.316479933461255</f>
         <v>31.647993346125503</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="I8" s="79"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="55">
         <f>100*0.340434832094393</f>
         <v>34.043483209439302</v>
       </c>
@@ -2209,25 +2399,25 @@
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="79"/>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="79"/>
+      <c r="I11" s="55"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="79"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="79"/>
+      <c r="I13" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/seq2seq_results.xlsx
+++ b/Results/seq2seq_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/Documents/GitHub/sockeye-recipes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0EAE9C-0BC6-254F-9BF8-6A8048CBD9CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC6FD6C-A88A-8044-9A78-EB8C907A043B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="700" windowWidth="23800" windowHeight="16540" xr2:uid="{63800894-6832-2440-9083-EFA27E428687}"/>
+    <workbookView minimized="1" xWindow="2740" yWindow="540" windowWidth="23800" windowHeight="16540" xr2:uid="{63800894-6832-2440-9083-EFA27E428687}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -23,12 +23,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Input_Format</t>
   </si>
@@ -198,10 +203,13 @@
     <t>Seq2Seq-LDCR</t>
   </si>
   <si>
-    <t>Newsela-V1</t>
-  </si>
-  <si>
     <t>Seq2Seq-R</t>
+  </si>
+  <si>
+    <t>Auto-Complex</t>
+  </si>
+  <si>
+    <t>Auto-Simple</t>
   </si>
 </sst>
 </file>
@@ -414,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -578,84 +586,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -674,6 +604,92 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764128D6-8239-9A43-B305-73DAA010AA3C}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1003,92 +1019,108 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="86" t="s">
-        <v>56</v>
+      <c r="C2" s="60" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="61">
         <f>100*0.363201298632058</f>
         <v>36.3201298632058</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="61">
         <f>100*0.360304975885519</f>
         <v>36.030497588551903</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="61">
         <f>100*0.359983168194613</f>
         <v>35.998316819461301</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="62">
         <f>100*0.343451991460067</f>
         <v>34.345199146006699</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="61">
         <f>100*0.360304975885519</f>
         <v>36.030497588551903</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="87">
+      <c r="B8" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="61">
         <f>100*0.364725073208579</f>
         <v>36.4725073208579</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="63">
         <f>100*0.372244223768009</f>
         <v>37.224422376800895</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="61">
         <f>100*0.353649187876813</f>
         <v>35.364918787681297</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="90">
+      <c r="C11" s="64">
         <f>100*0.371089134818915</f>
         <v>37.108913481891499</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="65">
+        <v>27.72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="66">
+        <v>30.18</v>
       </c>
     </row>
   </sheetData>
@@ -1115,34 +1147,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="60" t="s">
+      <c r="H2" s="84"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="72" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="3:14" ht="34">
-      <c r="C3" s="59"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1152,24 +1184,24 @@
       <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="61"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="3:14">
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="74" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="80">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
@@ -1187,13 +1219,13 @@
       </c>
     </row>
     <row r="5" spans="3:14">
-      <c r="C5" s="66"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="7">
         <f>0.650766445514131*100</f>
         <v>65.076644551413096</v>
@@ -1208,13 +1240,13 @@
       </c>
     </row>
     <row r="6" spans="3:14" ht="15" customHeight="1">
-      <c r="C6" s="67"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="70"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="9">
         <f>100*0.660247281857768</f>
         <v>66.024728185776809</v>
@@ -1229,19 +1261,19 @@
       </c>
     </row>
     <row r="7" spans="3:14" ht="15" customHeight="1">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="77" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="80">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
@@ -1259,13 +1291,13 @@
       </c>
     </row>
     <row r="8" spans="3:14" ht="15" customHeight="1">
-      <c r="C8" s="66"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="66"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="69"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="7">
         <f>100*0.6667034520998</f>
         <v>66.670345209979999</v>
@@ -1280,13 +1312,13 @@
       </c>
     </row>
     <row r="9" spans="3:14" ht="15" customHeight="1">
-      <c r="C9" s="67"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="67"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="G9" s="70"/>
+      <c r="G9" s="82"/>
       <c r="H9" s="46">
         <f>100*0.682087556614694</f>
         <v>68.208755661469397</v>
@@ -1655,19 +1687,19 @@
       <c r="N42" s="31"/>
     </row>
     <row r="43" spans="3:14">
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="62" t="s">
+      <c r="D43" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="62" t="s">
+      <c r="E43" s="74" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="24">
         <v>1</v>
       </c>
-      <c r="G43" s="76">
+      <c r="G43" s="88">
         <f>100*0.358462182012152</f>
         <v>35.846218201215201</v>
       </c>
@@ -1683,20 +1715,20 @@
         <f>100*0.340449469392756</f>
         <v>34.044946939275597</v>
       </c>
-      <c r="L43" s="57" t="s">
+      <c r="L43" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="57"/>
+      <c r="M43" s="69"/>
       <c r="N43" s="31"/>
     </row>
     <row r="44" spans="3:14">
-      <c r="C44" s="66"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="25">
         <v>5</v>
       </c>
-      <c r="G44" s="77"/>
+      <c r="G44" s="89"/>
       <c r="H44" s="32">
         <f>100*0.695336409341215</f>
         <v>69.533640934121493</v>
@@ -1709,18 +1741,18 @@
         <f>100*0.340496168006096</f>
         <v>34.049616800609598</v>
       </c>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
       <c r="N44" s="31"/>
     </row>
     <row r="45" spans="3:14">
-      <c r="C45" s="67"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="17">
         <v>10</v>
       </c>
-      <c r="G45" s="78"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="45">
         <f>100*0.709714023667025</f>
         <v>70.971402366702492</v>
@@ -1733,24 +1765,24 @@
         <f>100*0.340528178057137</f>
         <v>34.052817805713701</v>
       </c>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
       <c r="N45" s="31"/>
     </row>
     <row r="46" spans="3:14">
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="79" t="s">
+      <c r="D46" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="62" t="s">
+      <c r="E46" s="74" t="s">
         <v>15</v>
       </c>
       <c r="F46" s="24">
         <v>1</v>
       </c>
-      <c r="G46" s="76">
+      <c r="G46" s="88">
         <f>100*0.358462182012152</f>
         <v>35.846218201215201</v>
       </c>
@@ -1766,18 +1798,18 @@
         <f>100*0.340755824765627</f>
         <v>34.075582476562701</v>
       </c>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
       <c r="N46" s="31"/>
     </row>
     <row r="47" spans="3:14">
-      <c r="C47" s="66"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="63"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="75"/>
       <c r="F47" s="25">
         <v>5</v>
       </c>
-      <c r="G47" s="77"/>
+      <c r="G47" s="89"/>
       <c r="H47" s="20">
         <f>100*0.694048395883354</f>
         <v>69.404839588335392</v>
@@ -1790,17 +1822,17 @@
         <f>100*0.340792224691425</f>
         <v>34.079222469142501</v>
       </c>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
     </row>
     <row r="48" spans="3:14" ht="16" customHeight="1">
-      <c r="C48" s="67"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="64"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="76"/>
       <c r="F48" s="17">
         <v>10</v>
       </c>
-      <c r="G48" s="78"/>
+      <c r="G48" s="90"/>
       <c r="H48" s="42">
         <f>100*0.711065982382695</f>
         <v>71.106598238269498</v>
@@ -1813,8 +1845,8 @@
         <f>100*0.34078052386673</f>
         <v>34.078052386673001</v>
       </c>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
     </row>
     <row r="50" spans="10:10">
       <c r="J50" s="55">
@@ -1863,34 +1895,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:13" ht="68">
-      <c r="B3" s="59"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1900,24 +1932,24 @@
       <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="82"/>
+      <c r="I3" s="94"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="80">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
@@ -1935,13 +1967,13 @@
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="66"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="7">
         <f>0.658387204449097*100</f>
         <v>65.838720444909711</v>
@@ -1956,13 +1988,13 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="66"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="70"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="9">
         <f>100*0.67706023296069</f>
         <v>67.706023296068992</v>
@@ -1977,19 +2009,19 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="80">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
@@ -2007,13 +2039,13 @@
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="66"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="7">
         <f>0.650766445514131*100</f>
         <v>65.076644551413096</v>
@@ -2028,13 +2060,13 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="67"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="9">
         <f>100*0.660247281857768</f>
         <v>66.024728185776809</v>
@@ -2049,19 +2081,19 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="80">
         <f>0.36379314092195*100</f>
         <v>36.379314092194996</v>
       </c>
@@ -2079,13 +2111,13 @@
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="66"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="7">
         <f>100*0.6667034520998</f>
         <v>66.670345209979999</v>
@@ -2100,13 +2132,13 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="67"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="67"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="9">
         <f>100*0.682087556614694</f>
         <v>68.208755661469397</v>
@@ -2131,19 +2163,19 @@
       <c r="I13" s="40"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="88">
         <f>100*0.358462182012152</f>
         <v>35.846218201215201</v>
       </c>
@@ -2159,20 +2191,20 @@
         <f>100*0.340449469392756</f>
         <v>34.044946939275597</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="57"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="66"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="25">
         <v>5</v>
       </c>
-      <c r="F15" s="77"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="32">
         <f>100*0.695336409341215</f>
         <v>69.533640934121493</v>
@@ -2185,18 +2217,18 @@
         <f>100*0.340496168006096</f>
         <v>34.049616800609598</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="67"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="64"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="17">
         <v>10</v>
       </c>
-      <c r="F16" s="78"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="42">
         <f>100*0.709714023667025</f>
         <v>70.971402366702492</v>
@@ -2209,24 +2241,24 @@
         <f>100*0.340528178057137</f>
         <v>34.052817805713701</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="88">
         <f>100*0.358462182012152</f>
         <v>35.846218201215201</v>
       </c>
@@ -2242,18 +2274,18 @@
         <f>100*0.340755824765627</f>
         <v>34.075582476562701</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="66"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="63"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="25">
         <v>5</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="20">
         <f>100*0.694048395883354</f>
         <v>69.404839588335392</v>
@@ -2266,18 +2298,18 @@
         <f>100*0.340792224691425</f>
         <v>34.079222469142501</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="67"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="17">
         <v>10</v>
       </c>
-      <c r="F19" s="78"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="18">
         <f>100*0.711065982382695</f>
         <v>71.106598238269498</v>
@@ -2290,8 +2322,8 @@
         <f>100*0.34078052386673</f>
         <v>34.078052386673001</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
       <c r="M19" s="31"/>
     </row>
   </sheetData>
